--- a/out_booth_245/suspect_summary.xlsx
+++ b/out_booth_245/suspect_summary.xlsx
@@ -576,10 +576,18 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Serial number 1 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -774,10 +782,18 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Serial number 4 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -840,10 +856,18 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Serial number 5 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1038,10 +1062,18 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Serial number 8 does not have any valid parent or spouse relationship with other voters in house number 1X on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1368,10 +1400,18 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Serial number 13 does not have any valid parent or spouse relationship with other voters in house number 1X on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1434,16 +1474,16 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Serial number 14 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 14 does not have any valid parent or spouse relationship with other voters in house number 1X on street '1-West Street Ward No-9'. | Serial number 14 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -1582,10 +1622,18 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Serial number 16 does not have any valid parent or spouse relationship with other voters in house number 2 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1788,10 +1836,18 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Serial number 19 does not have any valid parent or spouse relationship with other voters in house number 2 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -3798,10 +3854,18 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Serial number 48 does not have any valid parent or spouse relationship with other voters in house number 54 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4794,16 +4858,16 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>House number 7 on street '1-West Street Ward No-9' contains 11 registered voters including serial number 62, which exceeds the household size threshold.</t>
+          <t>Serial number 62 does not have any valid parent or spouse relationship with other voters in house number 7 on street '1-West Street Ward No-9'. | House number 7 on street '1-West Street Ward No-9' contains 11 registered voters including serial number 62, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -4868,16 +4932,16 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>House number 7 on street '1-West Street Ward No-9' contains 11 registered voters including serial number 63, which exceeds the household size threshold.</t>
+          <t>Serial number 63 does not have any valid parent or spouse relationship with other voters in house number 7 on street '1-West Street Ward No-9'. | House number 7 on street '1-West Street Ward No-9' contains 11 registered voters including serial number 63, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -6268,10 +6332,18 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Serial number 83 does not have any valid parent or spouse relationship with other voters in house number 10 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -6334,10 +6406,18 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Serial number 84 does not have any valid parent or spouse relationship with other voters in house number 10 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -7108,18 +7188,10 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>Serial number 95 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -8022,18 +8094,10 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
-      </c>
-      <c r="O109" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P109" t="inlineStr">
-        <is>
-          <t>Serial number 108 is the only voter listed under house number 12-32 on street '1-West Street Ward No-9' in booth 245.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -8100,12 +8164,12 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>Serial number 109 is the only voter listed under house number 12/32 on street '1-West Street Ward No-9' in booth 245.</t>
+          <t>Serial number 109 does not have any valid parent or spouse relationship with other voters in house number 12/32 on street '1-West Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -8302,16 +8366,16 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>Serial number 112 is the only voter listed under house number 124-33 on street '1-West Street Ward No-9' in booth 245. | Serial number 112 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 112 is the only voter listed under house number 124-33 on street '1-West Street Ward No-9' in booth 245.</t>
         </is>
       </c>
     </row>
@@ -8804,10 +8868,18 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>Serial number 119 does not have any valid parent or spouse relationship with other voters in house number 144 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -8870,10 +8942,18 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>Serial number 120 does not have any valid parent or spouse relationship with other voters in house number 144 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -9488,10 +9568,18 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>Serial number 129 does not have any valid parent or spouse relationship with other voters in house number 16 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -10188,10 +10276,18 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>Serial number 139 does not have any valid parent or spouse relationship with other voters in house number 19 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -10740,16 +10836,16 @@
         </is>
       </c>
       <c r="N148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>Serial number 147 is the only voter listed under house number 24 on street '1-West Street Ward No-9' in booth 245. | Serial number 147 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 147 is the only voter listed under house number 24 on street '1-West Street Ward No-9' in booth 245.</t>
         </is>
       </c>
     </row>
@@ -10818,12 +10914,12 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>Serial number 148 is the only voter listed under house number 24-16 on street '1-West Street Ward No-9' in booth 245.</t>
+          <t>Serial number 148 does not have any valid parent or spouse relationship with other voters in house number 24-16 on street '1-West Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -10892,12 +10988,12 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>Serial number 149 is the only voter listed under house number 24/16 on street '1-West Street Ward No-9' in booth 245.</t>
+          <t>Serial number 149 does not have any valid parent or spouse relationship with other voters in house number 24/16 on street '1-West Street Ward No-9'.</t>
         </is>
       </c>
     </row>
@@ -11390,10 +11486,18 @@
         </is>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>Serial number 156 does not have any valid parent or spouse relationship with other voters in house number 30 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -12478,10 +12582,18 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>Serial number 172 does not have any valid parent or spouse relationship with other voters in house number 34 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -12610,10 +12722,18 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>Serial number 174 does not have any valid parent or spouse relationship with other voters in house number 34 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -13318,10 +13438,18 @@
         </is>
       </c>
       <c r="N185" t="n">
-        <v>0</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>Serial number 184 does not have any valid parent or spouse relationship with other voters in house number 34H12 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -13746,10 +13874,18 @@
         </is>
       </c>
       <c r="N191" t="n">
-        <v>0</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>Serial number 190 does not have any valid parent or spouse relationship with other voters in house number 37A on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -13812,10 +13948,18 @@
         </is>
       </c>
       <c r="N192" t="n">
-        <v>0</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>Serial number 191 does not have any valid parent or spouse relationship with other voters in house number 37A on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -14298,16 +14442,16 @@
         </is>
       </c>
       <c r="N199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>Serial number 198 is the only voter listed under house number 384A on street '1-West Street Ward No-9' in booth 245. | Serial number 198 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 198 is the only voter listed under house number 384A on street '1-West Street Ward No-9' in booth 245.</t>
         </is>
       </c>
     </row>
@@ -15146,18 +15290,10 @@
         </is>
       </c>
       <c r="N211" t="n">
-        <v>1</v>
-      </c>
-      <c r="O211" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P211" t="inlineStr">
-        <is>
-          <t>Serial number 210 is the only voter listed under house number 40/72 on street '1-West Street Ward No-9' in booth 245.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -16184,10 +16320,18 @@
         </is>
       </c>
       <c r="N226" t="n">
-        <v>0</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>Serial number 225 does not have any valid parent or spouse relationship with other voters in house number 41a on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -16250,10 +16394,18 @@
         </is>
       </c>
       <c r="N227" t="n">
-        <v>0</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>Serial number 226 does not have any valid parent or spouse relationship with other voters in house number 41a on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -16654,10 +16806,18 @@
         </is>
       </c>
       <c r="N233" t="n">
-        <v>0</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>Serial number 232 does not have any valid parent or spouse relationship with other voters in house number 42 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -16720,10 +16880,18 @@
         </is>
       </c>
       <c r="N234" t="n">
-        <v>0</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>Serial number 233 does not have any valid parent or spouse relationship with other voters in house number 42 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -17066,10 +17234,18 @@
         </is>
       </c>
       <c r="N239" t="n">
-        <v>0</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>Serial number 238 does not have any valid parent or spouse relationship with other voters in house number 45 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -18424,18 +18600,10 @@
         </is>
       </c>
       <c r="N258" t="n">
-        <v>1</v>
-      </c>
-      <c r="O258" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P258" t="inlineStr">
-        <is>
-          <t>Serial number 257 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -19478,10 +19646,18 @@
         </is>
       </c>
       <c r="N273" t="n">
-        <v>0</v>
-      </c>
-      <c r="O273" t="inlineStr"/>
-      <c r="P273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>Serial number 272 does not have any valid parent or spouse relationship with other voters in house number 51 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
@@ -19544,10 +19720,18 @@
         </is>
       </c>
       <c r="N274" t="n">
-        <v>0</v>
-      </c>
-      <c r="O274" t="inlineStr"/>
-      <c r="P274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>Serial number 273 does not have any valid parent or spouse relationship with other voters in house number 51 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
@@ -19610,10 +19794,18 @@
         </is>
       </c>
       <c r="N275" t="n">
-        <v>0</v>
-      </c>
-      <c r="O275" t="inlineStr"/>
-      <c r="P275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>Serial number 274 does not have any valid parent or spouse relationship with other voters in house number 51 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
@@ -21950,10 +22142,18 @@
         </is>
       </c>
       <c r="N309" t="n">
-        <v>0</v>
-      </c>
-      <c r="O309" t="inlineStr"/>
-      <c r="P309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>Serial number 308 does not have any valid parent or spouse relationship with other voters in house number 63 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -23838,10 +24038,18 @@
         </is>
       </c>
       <c r="N337" t="n">
-        <v>0</v>
-      </c>
-      <c r="O337" t="inlineStr"/>
-      <c r="P337" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P337" t="inlineStr">
+        <is>
+          <t>Serial number 336 does not have any valid parent or spouse relationship with other voters in house number 70 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -24242,18 +24450,10 @@
         </is>
       </c>
       <c r="N343" t="n">
-        <v>1</v>
-      </c>
-      <c r="O343" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P343" t="inlineStr">
-        <is>
-          <t>Serial number 342 is the only voter listed under house number 70-38 on street '1-West Street Ward No-9' in booth 245.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O343" t="inlineStr"/>
+      <c r="P343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" t="n">
@@ -24316,18 +24516,10 @@
         </is>
       </c>
       <c r="N344" t="n">
-        <v>1</v>
-      </c>
-      <c r="O344" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P344" t="inlineStr">
-        <is>
-          <t>Serial number 343 is the only voter listed under house number 70/38 on street '1-West Street Ward No-9' in booth 245.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O344" t="inlineStr"/>
+      <c r="P344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" t="n">
@@ -24604,10 +24796,18 @@
         </is>
       </c>
       <c r="N348" t="n">
-        <v>0</v>
-      </c>
-      <c r="O348" t="inlineStr"/>
-      <c r="P348" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P348" t="inlineStr">
+        <is>
+          <t>Serial number 347 does not have any valid parent or spouse relationship with other voters in house number 71, on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
@@ -25148,10 +25348,18 @@
         </is>
       </c>
       <c r="N356" t="n">
-        <v>0</v>
-      </c>
-      <c r="O356" t="inlineStr"/>
-      <c r="P356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P356" t="inlineStr">
+        <is>
+          <t>Serial number 355 does not have any valid parent or spouse relationship with other voters in house number 72 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -25420,16 +25628,16 @@
         </is>
       </c>
       <c r="N360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID, INVALID_EPIC_ID</t>
+          <t>AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P360" t="inlineStr">
         <is>
-          <t>Serial number 359 was flagged due to rule: INVALID_EPIC_ID. | Serial number 359 has invalid age value 0.</t>
+          <t>Serial number 359 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -25494,10 +25702,18 @@
         </is>
       </c>
       <c r="N361" t="n">
-        <v>0</v>
-      </c>
-      <c r="O361" t="inlineStr"/>
-      <c r="P361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O361" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P361" t="inlineStr">
+        <is>
+          <t>Serial number 360 does not have any valid parent or spouse relationship with other voters in house number 73 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -25560,10 +25776,18 @@
         </is>
       </c>
       <c r="N362" t="n">
-        <v>0</v>
-      </c>
-      <c r="O362" t="inlineStr"/>
-      <c r="P362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O362" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P362" t="inlineStr">
+        <is>
+          <t>Serial number 361 does not have any valid parent or spouse relationship with other voters in house number 73 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -26178,10 +26402,18 @@
         </is>
       </c>
       <c r="N371" t="n">
-        <v>0</v>
-      </c>
-      <c r="O371" t="inlineStr"/>
-      <c r="P371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>Serial number 370 does not have any valid parent or spouse relationship with other voters in house number 74 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -26244,10 +26476,18 @@
         </is>
       </c>
       <c r="N372" t="n">
-        <v>0</v>
-      </c>
-      <c r="O372" t="inlineStr"/>
-      <c r="P372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>Serial number 371 does not have any valid parent or spouse relationship with other voters in house number 74 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -27126,16 +27366,16 @@
         </is>
       </c>
       <c r="N385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P385" t="inlineStr">
         <is>
-          <t>Serial number 384 is the only voter listed under house number 75-34E on street '1-West Street Ward No-9' in booth 245. | Serial number 384 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 384 is the only voter listed under house number 75-34E on street '1-West Street Ward No-9' in booth 245.</t>
         </is>
       </c>
     </row>
@@ -27826,10 +28066,18 @@
         </is>
       </c>
       <c r="N395" t="n">
-        <v>0</v>
-      </c>
-      <c r="O395" t="inlineStr"/>
-      <c r="P395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O395" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P395" t="inlineStr">
+        <is>
+          <t>Serial number 394 does not have any valid parent or spouse relationship with other voters in house number 81 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
@@ -28806,10 +29054,18 @@
         </is>
       </c>
       <c r="N409" t="n">
-        <v>0</v>
-      </c>
-      <c r="O409" t="inlineStr"/>
-      <c r="P409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>Serial number 408 does not have any valid parent or spouse relationship with other voters in house number 93 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
@@ -28872,10 +29128,18 @@
         </is>
       </c>
       <c r="N410" t="n">
-        <v>0</v>
-      </c>
-      <c r="O410" t="inlineStr"/>
-      <c r="P410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O410" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P410" t="inlineStr">
+        <is>
+          <t>Serial number 409 does not have any valid parent or spouse relationship with other voters in house number 93 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
@@ -31180,18 +31444,10 @@
         </is>
       </c>
       <c r="N444" t="n">
-        <v>1</v>
-      </c>
-      <c r="O444" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P444" t="inlineStr">
-        <is>
-          <t>Serial number 443 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O444" t="inlineStr"/>
+      <c r="P444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -32796,10 +33052,18 @@
         </is>
       </c>
       <c r="N468" t="n">
-        <v>0</v>
-      </c>
-      <c r="O468" t="inlineStr"/>
-      <c r="P468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>Serial number 467 does not have any valid parent or spouse relationship with other voters in house number 115/60 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -32862,10 +33126,18 @@
         </is>
       </c>
       <c r="N469" t="n">
-        <v>0</v>
-      </c>
-      <c r="O469" t="inlineStr"/>
-      <c r="P469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O469" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P469" t="inlineStr">
+        <is>
+          <t>Serial number 468 does not have any valid parent or spouse relationship with other voters in house number 115/60 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
@@ -34008,10 +34280,18 @@
         </is>
       </c>
       <c r="N486" t="n">
-        <v>0</v>
-      </c>
-      <c r="O486" t="inlineStr"/>
-      <c r="P486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O486" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P486" t="inlineStr">
+        <is>
+          <t>Serial number 485 does not have any valid parent or spouse relationship with other voters in house number 124 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
@@ -34074,10 +34354,18 @@
         </is>
       </c>
       <c r="N487" t="n">
-        <v>0</v>
-      </c>
-      <c r="O487" t="inlineStr"/>
-      <c r="P487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O487" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P487" t="inlineStr">
+        <is>
+          <t>Serial number 486 does not have any valid parent or spouse relationship with other voters in house number 125 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
@@ -34544,10 +34832,18 @@
         </is>
       </c>
       <c r="N494" t="n">
-        <v>0</v>
-      </c>
-      <c r="O494" t="inlineStr"/>
-      <c r="P494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O494" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P494" t="inlineStr">
+        <is>
+          <t>Serial number 493 does not have any valid parent or spouse relationship with other voters in house number 126-1 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
@@ -34610,10 +34906,18 @@
         </is>
       </c>
       <c r="N495" t="n">
-        <v>0</v>
-      </c>
-      <c r="O495" t="inlineStr"/>
-      <c r="P495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O495" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P495" t="inlineStr">
+        <is>
+          <t>Serial number 494 does not have any valid parent or spouse relationship with other voters in house number 126-1 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
@@ -35154,10 +35458,18 @@
         </is>
       </c>
       <c r="N503" t="n">
-        <v>0</v>
-      </c>
-      <c r="O503" t="inlineStr"/>
-      <c r="P503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O503" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>Serial number 502 does not have any valid parent or spouse relationship with other voters in house number 131 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
@@ -35220,10 +35532,18 @@
         </is>
       </c>
       <c r="N504" t="n">
-        <v>0</v>
-      </c>
-      <c r="O504" t="inlineStr"/>
-      <c r="P504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>Serial number 503 does not have any valid parent or spouse relationship with other voters in house number 131 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -35352,10 +35672,18 @@
         </is>
       </c>
       <c r="N506" t="n">
-        <v>0</v>
-      </c>
-      <c r="O506" t="inlineStr"/>
-      <c r="P506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O506" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P506" t="inlineStr">
+        <is>
+          <t>Serial number 505 does not have any valid parent or spouse relationship with other voters in house number 131 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
@@ -35690,10 +36018,18 @@
         </is>
       </c>
       <c r="N511" t="n">
-        <v>0</v>
-      </c>
-      <c r="O511" t="inlineStr"/>
-      <c r="P511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O511" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>Serial number 510 does not have any valid parent or spouse relationship with other voters in house number 136 on street '1-West Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
@@ -36456,10 +36792,18 @@
         </is>
       </c>
       <c r="N522" t="n">
-        <v>0</v>
-      </c>
-      <c r="O522" t="inlineStr"/>
-      <c r="P522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O522" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P522" t="inlineStr">
+        <is>
+          <t>Serial number 521 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-Naduvalvu Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
@@ -36522,10 +36866,18 @@
         </is>
       </c>
       <c r="N523" t="n">
-        <v>0</v>
-      </c>
-      <c r="O523" t="inlineStr"/>
-      <c r="P523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O523" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P523" t="inlineStr">
+        <is>
+          <t>Serial number 522 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-Naduvalvu Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
@@ -37140,10 +37492,18 @@
         </is>
       </c>
       <c r="N532" t="n">
-        <v>0</v>
-      </c>
-      <c r="O532" t="inlineStr"/>
-      <c r="P532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O532" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P532" t="inlineStr">
+        <is>
+          <t>Serial number 531 does not have any valid parent or spouse relationship with other voters in house number 3 on street '2-Naduvalvu Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
@@ -38550,10 +38910,18 @@
         </is>
       </c>
       <c r="N553" t="n">
-        <v>0</v>
-      </c>
-      <c r="O553" t="inlineStr"/>
-      <c r="P553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O553" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P553" t="inlineStr">
+        <is>
+          <t>Serial number 552 does not have any valid parent or spouse relationship with other voters in house number 9 on street '2-Naduvalvu Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
@@ -38616,10 +38984,18 @@
         </is>
       </c>
       <c r="N554" t="n">
-        <v>0</v>
-      </c>
-      <c r="O554" t="inlineStr"/>
-      <c r="P554" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O554" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P554" t="inlineStr">
+        <is>
+          <t>Serial number 553 does not have any valid parent or spouse relationship with other voters in house number 9 on street '2-Naduvalvu Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
@@ -39522,18 +39898,10 @@
         </is>
       </c>
       <c r="N567" t="n">
-        <v>1</v>
-      </c>
-      <c r="O567" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P567" t="inlineStr">
-        <is>
-          <t>Serial number 566 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O567" t="inlineStr"/>
+      <c r="P567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" t="n">
@@ -40074,10 +40442,18 @@
         </is>
       </c>
       <c r="N575" t="n">
-        <v>0</v>
-      </c>
-      <c r="O575" t="inlineStr"/>
-      <c r="P575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O575" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P575" t="inlineStr">
+        <is>
+          <t>Serial number 574 does not have any valid parent or spouse relationship with other voters in house number 13 on street '2-Naduvalvu Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
@@ -40486,10 +40862,18 @@
         </is>
       </c>
       <c r="N581" t="n">
-        <v>0</v>
-      </c>
-      <c r="O581" t="inlineStr"/>
-      <c r="P581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O581" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P581" t="inlineStr">
+        <is>
+          <t>Serial number 580 does not have any valid parent or spouse relationship with other voters in house number 16 on street '2-Naduvalvu Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
@@ -40684,10 +41068,18 @@
         </is>
       </c>
       <c r="N584" t="n">
-        <v>0</v>
-      </c>
-      <c r="O584" t="inlineStr"/>
-      <c r="P584" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O584" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P584" t="inlineStr">
+        <is>
+          <t>Serial number 583 does not have any valid parent or spouse relationship with other voters in house number 17 on street '2-Naduvalvu Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
@@ -40750,10 +41142,18 @@
         </is>
       </c>
       <c r="N585" t="n">
-        <v>0</v>
-      </c>
-      <c r="O585" t="inlineStr"/>
-      <c r="P585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P585" t="inlineStr">
+        <is>
+          <t>Serial number 584 does not have any valid parent or spouse relationship with other voters in house number 17 on street '2-Naduvalvu Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -40816,10 +41216,18 @@
         </is>
       </c>
       <c r="N586" t="n">
-        <v>0</v>
-      </c>
-      <c r="O586" t="inlineStr"/>
-      <c r="P586" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O586" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P586" t="inlineStr">
+        <is>
+          <t>Serial number 585 does not have any valid parent or spouse relationship with other voters in house number 17 on street '2-Naduvalvu Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
@@ -41894,16 +42302,16 @@
         </is>
       </c>
       <c r="N601" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O601" t="inlineStr">
         <is>
-          <t>UNDER_18</t>
+          <t>ADOPTED_NO_RELATIVE, UNDER_18</t>
         </is>
       </c>
       <c r="P601" t="inlineStr">
         <is>
-          <t>Serial number 600 has age 5, below voting age.</t>
+          <t>Serial number 600 does not have any valid parent or spouse relationship with other voters in house number 1 on street '3-East Street Ward No-9'. | Serial number 600 has age 5, below voting age.</t>
         </is>
       </c>
     </row>
@@ -42906,10 +43314,18 @@
         </is>
       </c>
       <c r="N615" t="n">
-        <v>0</v>
-      </c>
-      <c r="O615" t="inlineStr"/>
-      <c r="P615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O615" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P615" t="inlineStr">
+        <is>
+          <t>Serial number 614 does not have any valid parent or spouse relationship with other voters in house number 5 on street '3-East Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
@@ -44678,16 +45094,16 @@
         </is>
       </c>
       <c r="N641" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O641" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P641" t="inlineStr">
         <is>
-          <t>Serial number 640 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 640 does not have any valid parent or spouse relationship with other voters in house number 12-1 on street '3-East Street Ward No-9'. | Serial number 640 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -44752,10 +45168,18 @@
         </is>
       </c>
       <c r="N642" t="n">
-        <v>0</v>
-      </c>
-      <c r="O642" t="inlineStr"/>
-      <c r="P642" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P642" t="inlineStr">
+        <is>
+          <t>Serial number 641 does not have any valid parent or spouse relationship with other voters in house number 12-1 on street '3-East Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
@@ -45856,10 +46280,18 @@
         </is>
       </c>
       <c r="N658" t="n">
-        <v>0</v>
-      </c>
-      <c r="O658" t="inlineStr"/>
-      <c r="P658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O658" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P658" t="inlineStr">
+        <is>
+          <t>Serial number 657 does not have any valid parent or spouse relationship with other voters in house number 15 on street '3-East Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
@@ -45922,10 +46354,18 @@
         </is>
       </c>
       <c r="N659" t="n">
-        <v>0</v>
-      </c>
-      <c r="O659" t="inlineStr"/>
-      <c r="P659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O659" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P659" t="inlineStr">
+        <is>
+          <t>Serial number 658 does not have any valid parent or spouse relationship with other voters in house number 15 on street '3-East Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
@@ -47750,10 +48190,18 @@
         </is>
       </c>
       <c r="N685" t="n">
-        <v>0</v>
-      </c>
-      <c r="O685" t="inlineStr"/>
-      <c r="P685" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O685" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P685" t="inlineStr">
+        <is>
+          <t>Serial number 684 does not have any valid parent or spouse relationship with other voters in house number 6 on street '4-South Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
@@ -48492,18 +48940,10 @@
         </is>
       </c>
       <c r="N696" t="n">
-        <v>1</v>
-      </c>
-      <c r="O696" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P696" t="inlineStr">
-        <is>
-          <t>Serial number 695 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O696" t="inlineStr"/>
+      <c r="P696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" t="n">
@@ -48566,10 +49006,18 @@
         </is>
       </c>
       <c r="N697" t="n">
-        <v>0</v>
-      </c>
-      <c r="O697" t="inlineStr"/>
-      <c r="P697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O697" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P697" t="inlineStr">
+        <is>
+          <t>Serial number 696 does not have any valid parent or spouse relationship with other voters in house number 11/5 on street '4-South Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
@@ -48632,10 +49080,18 @@
         </is>
       </c>
       <c r="N698" t="n">
-        <v>0</v>
-      </c>
-      <c r="O698" t="inlineStr"/>
-      <c r="P698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O698" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P698" t="inlineStr">
+        <is>
+          <t>Serial number 697 does not have any valid parent or spouse relationship with other voters in house number 11/5 on street '4-South Street Ward No-9'.</t>
+        </is>
+      </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
